--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3D72B-4465-4AC7-8BBE-37E1E5C1A38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650D98A-ACE8-4026-89E5-7AF77C0B32D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="270">
   <si>
     <t>UNKNOWN_SERIE</t>
   </si>
@@ -778,18 +778,12 @@
     <t>histTag_ignore</t>
   </si>
   <si>
-    <t>sheet</t>
-  </si>
-  <si>
     <t>beschrijving</t>
   </si>
   <si>
     <t>soort</t>
   </si>
   <si>
-    <t>input</t>
-  </si>
-  <si>
     <t>bevat de histTags die worden genegeerd bij het wegschrijven van de sheet mpt</t>
   </si>
   <si>
@@ -797,13 +791,64 @@
   </si>
   <si>
     <t>relateert aan script(s)</t>
+  </si>
+  <si>
+    <t>histTags_noMatch</t>
+  </si>
+  <si>
+    <t>mpt</t>
+  </si>
+  <si>
+    <t>bevat alle interne locaties in FEWS met start- en einddatum</t>
+  </si>
+  <si>
+    <t>kleur werkblad</t>
+  </si>
+  <si>
+    <t>betekenis</t>
+  </si>
+  <si>
+    <t>geen kleur</t>
+  </si>
+  <si>
+    <t>leeg werkblad</t>
+  </si>
+  <si>
+    <t>blauw</t>
+  </si>
+  <si>
+    <t>werkblad wordt niet bewerkt door scripts</t>
+  </si>
+  <si>
+    <t>groen</t>
+  </si>
+  <si>
+    <t>werkblad is uitvoer, groen = OK</t>
+  </si>
+  <si>
+    <t>rood</t>
+  </si>
+  <si>
+    <t>werkblad is uitvoer, rood is niet leeg en vraagt aandacht</t>
+  </si>
+  <si>
+    <t>werbladen</t>
+  </si>
+  <si>
+    <t>invoer</t>
+  </si>
+  <si>
+    <t>uitvoer</t>
+  </si>
+  <si>
+    <t>bevat de histTags die niet zijn opgenomen in de idMapFiles van FEWS. Wanneer een histTag ten onrechte in deze lijst staat, voeg hem toe aan de sheet histTag_ignore.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,16 +864,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -836,16 +906,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,51 +1300,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73E6461-8EEE-488E-9971-C873CBC91220}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D8" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B10" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>253</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1214,33 +1432,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1297B3-9501-44DF-9CEB-E8F140A215DC}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="7" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -1251,7 +1469,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -1262,7 +1480,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -1273,7 +1491,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -1284,7 +1502,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -1295,7 +1513,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -1306,7 +1524,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -1317,7 +1535,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -1328,7 +1546,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -1339,7 +1557,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
@@ -1350,7 +1568,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
@@ -1361,7 +1579,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
@@ -1372,7 +1590,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
@@ -1383,7 +1601,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
@@ -1394,7 +1612,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -1405,7 +1623,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -1416,7 +1634,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
@@ -1427,7 +1645,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
@@ -1438,7 +1656,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
@@ -1449,7 +1667,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1">
@@ -1460,7 +1678,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1">
@@ -1471,7 +1689,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1">
@@ -1482,7 +1700,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1">
@@ -1493,7 +1711,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1">
@@ -1504,7 +1722,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1">
@@ -1515,7 +1733,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1">
@@ -1526,7 +1744,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1">
@@ -1537,7 +1755,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
@@ -1548,7 +1766,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1">
@@ -1559,7 +1777,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1">
@@ -1570,7 +1788,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1">
@@ -1581,7 +1799,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1">
@@ -1592,7 +1810,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1">
@@ -1603,7 +1821,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
@@ -1614,7 +1832,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="1">
@@ -1625,7 +1843,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="1">
@@ -1636,7 +1854,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="1">
@@ -1647,7 +1865,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="1">
@@ -1658,7 +1876,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="1">
@@ -1669,7 +1887,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="1">
@@ -1680,7 +1898,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="1">
@@ -1691,7 +1909,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="1">
@@ -1702,7 +1920,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="1">
@@ -1713,7 +1931,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="1">
@@ -1724,7 +1942,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="1">
@@ -1735,7 +1953,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="1">
@@ -1746,7 +1964,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="1">
@@ -1757,7 +1975,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="1">
@@ -1768,7 +1986,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="1">
@@ -1779,7 +1997,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="1">
@@ -1790,7 +2008,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="1">
@@ -1801,7 +2019,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="1">
@@ -1812,7 +2030,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="1">
@@ -1823,7 +2041,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="1">
@@ -1834,7 +2052,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="1">
@@ -1845,7 +2063,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="1">
@@ -1856,7 +2074,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="1">
@@ -1867,7 +2085,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="1">
@@ -1878,7 +2096,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="1">
@@ -1889,7 +2107,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="1">
@@ -1900,7 +2118,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="1">
@@ -1911,7 +2129,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="1">
@@ -1922,7 +2140,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="1">
@@ -1933,7 +2151,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="1">
@@ -1944,7 +2162,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="1">
@@ -1955,7 +2173,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="1">
@@ -1966,7 +2184,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="1">
@@ -1977,7 +2195,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="1">
@@ -1988,7 +2206,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="1">
@@ -1999,7 +2217,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="1">
@@ -2010,7 +2228,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="1">
@@ -2021,7 +2239,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="1">
@@ -2032,7 +2250,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="1">
@@ -2043,7 +2261,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="1">
@@ -2054,7 +2272,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="1">
@@ -2065,7 +2283,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="1">
@@ -2076,7 +2294,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="1">
@@ -2087,7 +2305,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="1">
@@ -2098,7 +2316,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="1">
@@ -2109,7 +2327,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="1">
@@ -2120,7 +2338,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="1">
@@ -2131,7 +2349,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="1">
@@ -2142,7 +2360,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="1">
@@ -2153,7 +2371,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="1">
@@ -2164,7 +2382,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="1">
@@ -2175,7 +2393,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B87" s="1">
@@ -2186,7 +2404,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="1">
@@ -2197,7 +2415,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B89" s="1">
@@ -2208,7 +2426,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="1">
@@ -2219,7 +2437,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="1">
@@ -2230,7 +2448,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="1">
@@ -2241,7 +2459,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="1">
@@ -2252,7 +2470,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B94" s="1">
@@ -2263,7 +2481,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="1">
@@ -2274,7 +2492,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="1">
@@ -2285,7 +2503,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="1">
@@ -2296,7 +2514,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="1">
@@ -2307,7 +2525,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="1">
@@ -2318,7 +2536,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B100" s="1">
@@ -2329,7 +2547,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="1">
@@ -2340,7 +2558,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B102" s="1">
@@ -2351,7 +2569,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="1">
@@ -2362,7 +2580,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="1">
@@ -2373,7 +2591,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="1">
@@ -2384,7 +2602,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="1">
@@ -2395,7 +2613,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="1">
@@ -2406,7 +2624,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="1">
@@ -2417,7 +2635,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="1">
@@ -2428,7 +2646,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="A110" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B110" s="1">
@@ -2439,7 +2657,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="A111" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="1">
@@ -2450,7 +2668,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="A112" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="1">
@@ -2461,7 +2679,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="A113" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B113" s="1">
@@ -2472,7 +2690,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="1">
@@ -2483,7 +2701,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="1">
@@ -2494,7 +2712,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="1">
@@ -2505,7 +2723,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="A117" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="1">
@@ -2516,7 +2734,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="A118" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="1">
@@ -2527,7 +2745,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="1">
@@ -2538,7 +2756,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="A120" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="1">
@@ -2549,7 +2767,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="1">
@@ -2560,7 +2778,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="1">
@@ -2571,7 +2789,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="1">
@@ -2582,7 +2800,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="A124" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B124" s="1">
@@ -2593,7 +2811,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B125" s="1">
@@ -2604,7 +2822,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="1">
@@ -2615,7 +2833,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="1">
@@ -2626,7 +2844,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B128" s="1">
@@ -2637,7 +2855,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="A129" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="1">
@@ -2648,7 +2866,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="A130" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B130" s="1">
@@ -2659,7 +2877,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="A131" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="1">
@@ -2670,7 +2888,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="A132" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="1">
@@ -2681,7 +2899,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="A133" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="1">
@@ -2692,7 +2910,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="A134" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B134" s="1">
@@ -2703,7 +2921,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="A135" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="1">
@@ -2714,7 +2932,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="A136" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B136" s="1">
@@ -2725,7 +2943,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="A137" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="1">
@@ -2736,7 +2954,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="A138" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B138" s="1">
@@ -2747,7 +2965,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="A139" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B139" s="1">
@@ -2758,7 +2976,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="A140" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="1">
@@ -2769,7 +2987,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="A141" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B141" s="1">
@@ -2780,7 +2998,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="A142" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="1">
@@ -2791,7 +3009,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="A143" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B143" s="1">
@@ -2802,7 +3020,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="A144" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B144" s="1">
@@ -2813,7 +3031,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="A145" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B145" s="1">
@@ -2824,7 +3042,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="A146" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="1">
@@ -2835,7 +3053,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="A147" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="1">
@@ -2846,7 +3064,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="A148" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="1">
@@ -2857,7 +3075,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="A149" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="1">
@@ -2868,7 +3086,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="A150" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="1">
@@ -2879,7 +3097,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="A151" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="1">
@@ -2890,7 +3108,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="A152" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="1">
@@ -2901,7 +3119,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="A153" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B153" s="1">
@@ -2912,7 +3130,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="A154" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B154" s="1">
@@ -2923,7 +3141,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="A155" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="1">
@@ -2934,7 +3152,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="A156" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="1">
@@ -2945,7 +3163,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="A157" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="1">
@@ -2956,7 +3174,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="A158" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="1">
@@ -2967,7 +3185,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="A159" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="1">
@@ -2978,7 +3196,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="A160" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B160" s="1">
@@ -2989,7 +3207,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="A161" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="1">
@@ -3000,7 +3218,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B162" s="1">
@@ -3011,7 +3229,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B163" s="1">
@@ -3022,7 +3240,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B164" s="1">
@@ -3033,7 +3251,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B165" s="1">
@@ -3044,7 +3262,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B166" s="1">
@@ -3055,7 +3273,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B167" s="1">
@@ -3066,7 +3284,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="A168" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B168" s="1">
@@ -3077,7 +3295,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B169" s="1">
@@ -3088,7 +3306,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B170" s="1">
@@ -3099,7 +3317,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="A171" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B171" s="1">
@@ -3110,7 +3328,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="A172" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B172" s="1">
@@ -3121,7 +3339,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B173" s="1">
@@ -3132,7 +3350,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="A174" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B174" s="1">
@@ -3143,7 +3361,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="A175" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B175" s="1">
@@ -3154,7 +3372,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="A176" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B176" s="1">
@@ -3165,7 +3383,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="A177" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B177" s="1">
@@ -3176,7 +3394,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="A178" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B178" s="1">
@@ -3187,7 +3405,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="A179" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="1">
@@ -3198,7 +3416,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="A180" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B180" s="1">
@@ -3209,7 +3427,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="A181" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B181" s="1">
@@ -3220,7 +3438,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="A182" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B182" s="1">
@@ -3231,7 +3449,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="A183" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="1">
@@ -3242,7 +3460,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="A184" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="1">
@@ -3253,7 +3471,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="A185" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B185" s="1">
@@ -3264,7 +3482,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="A186" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B186" s="1">
@@ -3275,7 +3493,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="A187" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B187" s="1">
@@ -3286,7 +3504,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="A188" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B188" s="1">
@@ -3297,7 +3515,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="A189" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B189" s="1">
@@ -3308,7 +3526,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="A190" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B190" s="1">
@@ -3319,7 +3537,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="A191" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B191" s="1">
@@ -3330,7 +3548,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="A192" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="1">
@@ -3341,7 +3559,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="A193" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B193" s="1">
@@ -3352,7 +3570,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="A194" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B194" s="1">
@@ -3363,7 +3581,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="A195" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B195" s="1">
@@ -3374,7 +3592,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="A196" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B196" s="1">
@@ -3385,7 +3603,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="A197" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B197" s="1">
@@ -3396,7 +3614,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="A198" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B198" s="1">
@@ -3407,7 +3625,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="A199" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B199" s="1">
@@ -3418,7 +3636,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="A200" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B200" s="1">
@@ -3429,7 +3647,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="A201" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B201" s="1">
@@ -3440,7 +3658,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="A202" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B202" s="1">
@@ -3451,7 +3669,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="A203" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B203" s="1">
@@ -3462,7 +3680,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="A204" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B204" s="1">
@@ -3473,7 +3691,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="A205" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B205" s="1">
@@ -3484,7 +3702,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="A206" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B206" s="1">
@@ -3495,7 +3713,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="A207" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B207" s="1">
@@ -3506,7 +3724,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="A208" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B208" s="1">
@@ -3517,7 +3735,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="A209" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B209" s="1">
@@ -3528,7 +3746,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="A210" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B210" s="1">
@@ -3539,7 +3757,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="A211" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B211" s="1">
@@ -3550,7 +3768,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="A212" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B212" s="1">
@@ -3561,7 +3779,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="A213" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B213" s="1">
@@ -3572,7 +3790,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="A214" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B214" s="1">
@@ -3583,7 +3801,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="A215" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B215" s="1">
@@ -3594,7 +3812,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="A216" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B216" s="1">
@@ -3605,7 +3823,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="A217" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B217" s="1">
@@ -3616,7 +3834,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="A218" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B218" s="1">
@@ -3627,7 +3845,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="A219" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B219" s="1">
@@ -3638,7 +3856,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="A220" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B220" s="1">
@@ -3649,7 +3867,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="A221" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B221" s="1">
@@ -3660,7 +3878,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="A222" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B222" s="1">
@@ -3671,7 +3889,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="A223" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B223" s="1">
@@ -3682,7 +3900,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="A224" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B224" s="1">
@@ -3693,7 +3911,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="A225" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B225" s="1">
@@ -3704,7 +3922,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="A226" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B226" s="1">
@@ -3715,7 +3933,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="A227" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B227" s="1">
@@ -3726,7 +3944,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="A228" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B228" s="1">
@@ -3737,7 +3955,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="A229" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B229" s="1">
@@ -3748,7 +3966,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="A230" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B230" s="1">
@@ -3759,7 +3977,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="A231" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B231" s="1">
@@ -3770,7 +3988,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="A232" s="5" t="s">
         <v>233</v>
       </c>
       <c r="B232" s="1">
@@ -3781,7 +3999,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="A233" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B233" s="1">
@@ -3792,7 +4010,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="A234" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B234" s="1">
@@ -3803,7 +4021,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="A235" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B235" s="1">
@@ -3814,7 +4032,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="A236" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B236" s="1">
@@ -3825,7 +4043,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="A237" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B237" s="1">
@@ -3836,7 +4054,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="A238" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B238" s="1">
@@ -3847,7 +4065,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="A239" s="5" t="s">
         <v>240</v>
       </c>
       <c r="B239" s="1">
@@ -3858,7 +4076,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="A240" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B240" s="1">
@@ -3869,7 +4087,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="A241" s="5" t="s">
         <v>242</v>
       </c>
       <c r="B241" s="1">
@@ -3880,7 +4098,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="A242" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B242" s="1">
@@ -3891,7 +4109,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="A243" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B243" s="1">
@@ -3902,7 +4120,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="A244" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B244" s="1">
@@ -3913,7 +4131,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="A245" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B245" s="1">
@@ -3925,5 +4143,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650D98A-ACE8-4026-89E5-7AF77C0B32D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B157B-F3AB-498F-A330-28DA9224652C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
   <sheets>
     <sheet name="inhoudsopgave" sheetId="2" r:id="rId1"/>
@@ -962,10 +962,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -975,9 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1317,29 +1317,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="11" t="s">
         <v>261</v>
       </c>
     </row>

--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -8,31 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B157B-F3AB-498F-A330-28DA9224652C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0FC28B-2EB2-4990-B3DD-5F715FEDAC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="2" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
   <sheets>
     <sheet name="inhoudsopgave" sheetId="2" r:id="rId1"/>
     <sheet name="histTag_ignore" sheetId="1" r:id="rId2"/>
+    <sheet name="exLoc_ignore" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
   <si>
     <t>UNKNOWN_SERIE</t>
   </si>
@@ -842,13 +837,40 @@
   </si>
   <si>
     <t>bevat de histTags die niet zijn opgenomen in de idMapFiles van FEWS. Wanneer een histTag ten onrechte in deze lijst staat, voeg hem toe aan de sheet histTag_ignore.</t>
+  </si>
+  <si>
+    <t>internalLocation</t>
+  </si>
+  <si>
+    <t>externalLocation</t>
+  </si>
+  <si>
+    <t>KW211510</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>KW211511</t>
+  </si>
+  <si>
+    <t>2116</t>
+  </si>
+  <si>
+    <t>OW216401</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,6 +892,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -938,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -966,6 +994,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1304,7 +1335,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1317,46 +1348,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>265</v>
       </c>
@@ -1437,7 +1468,7 @@
   <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4145,4 +4176,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E680A0-F932-4275-9776-37DC77E92D60}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0FC28B-2EB2-4990-B3DD-5F715FEDAC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55CC731-29EC-4C04-8E92-DC93D42C3DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="2" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="3" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
   <sheets>
     <sheet name="inhoudsopgave" sheetId="2" r:id="rId1"/>
     <sheet name="histTag_ignore" sheetId="1" r:id="rId2"/>
     <sheet name="exLoc_ignore" sheetId="3" r:id="rId3"/>
+    <sheet name="TS800_ignore" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="281">
   <si>
     <t>UNKNOWN_SERIE</t>
   </si>
@@ -864,6 +865,12 @@
   </si>
   <si>
     <t>2102</t>
+  </si>
+  <si>
+    <t>KW439421</t>
+  </si>
+  <si>
+    <t>KW439441</t>
   </si>
 </sst>
 </file>
@@ -4185,8 +4192,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4254,4 +4261,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F167E57-0485-4258-AF82-B0F213523462}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D995768-44E6-413E-89F3-7744E3226743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C7740-62A9-45A0-8950-188B13855A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" tabRatio="928" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="3" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
   <sheets>
     <sheet name="inhoudsopgave" sheetId="2" r:id="rId1"/>
     <sheet name="exLoc_ignore" sheetId="3" r:id="rId2"/>
     <sheet name="TS800_ignore" sheetId="4" r:id="rId3"/>
+    <sheet name="xy_ignore" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>histTag_ignore</t>
   </si>
@@ -129,13 +130,40 @@
   </si>
   <si>
     <t>KW439441</t>
+  </si>
+  <si>
+    <t>KW10091.</t>
+  </si>
+  <si>
+    <t>KW10501.</t>
+  </si>
+  <si>
+    <t>KW21281.</t>
+  </si>
+  <si>
+    <t>KW21621.</t>
+  </si>
+  <si>
+    <t>KW21622.</t>
+  </si>
+  <si>
+    <t>KW43291.</t>
+  </si>
+  <si>
+    <t>KW43611.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +190,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -231,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -270,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +627,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -723,7 +760,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,9 +837,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -853,4 +888,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2552D722-456F-425A-83BF-568901451CEB}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>146257</v>
+      </c>
+      <c r="C2">
+        <v>444087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>152415</v>
+      </c>
+      <c r="C3">
+        <v>442693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>134709</v>
+      </c>
+      <c r="C4">
+        <v>455669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>128204</v>
+      </c>
+      <c r="C5">
+        <v>456981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>128204</v>
+      </c>
+      <c r="C6">
+        <v>456981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>111178</v>
+      </c>
+      <c r="C7">
+        <v>455357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>115117</v>
+      </c>
+      <c r="C8">
+        <v>448663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C7740-62A9-45A0-8950-188B13855A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E4F56-2A4F-44BE-BF60-07C3C93C0D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="3" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>histTag_ignore</t>
   </si>
@@ -157,13 +157,16 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>KW21301.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -265,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -287,6 +296,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -305,9 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,46 +650,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -895,10 +905,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,7 +928,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B2">
@@ -929,7 +939,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B3">
@@ -940,7 +950,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B4">
@@ -951,7 +961,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B5">
@@ -962,7 +972,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B6">
@@ -973,7 +983,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B7">
@@ -984,7 +994,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B8">
@@ -992,6 +1002,17 @@
       </c>
       <c r="C8">
         <v>448663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>134911</v>
+      </c>
+      <c r="C9">
+        <v>446138</v>
       </c>
     </row>
   </sheetData>

--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E4F56-2A4F-44BE-BF60-07C3C93C0D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA49EE-0E52-4060-98B1-EC53021A710F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="3" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
   <sheets>
     <sheet name="inhoudsopgave" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>histTag_ignore</t>
   </si>
@@ -39,24 +39,12 @@
     <t>soort</t>
   </si>
   <si>
-    <t>bevat de histTags die worden genegeerd bij het wegschrijven van de sheet mpt</t>
-  </si>
-  <si>
-    <t>histTags2mpt.py</t>
-  </si>
-  <si>
-    <t>relateert aan script(s)</t>
-  </si>
-  <si>
     <t>histTags_noMatch</t>
   </si>
   <si>
     <t>mpt</t>
   </si>
   <si>
-    <t>bevat alle interne locaties in FEWS met start- en einddatum</t>
-  </si>
-  <si>
     <t>kleur werkblad</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>uitvoer</t>
   </si>
   <si>
-    <t>bevat de histTags die niet zijn opgenomen in de idMapFiles van FEWS. Wanneer een histTag ten onrechte in deze lijst staat, voeg hem toe aan de sheet histTag_ignore.</t>
-  </si>
-  <si>
     <t>internalLocation</t>
   </si>
   <si>
@@ -160,6 +145,200 @@
   </si>
   <si>
     <t>KW21301.</t>
+  </si>
+  <si>
+    <t>idmap v sectie</t>
+  </si>
+  <si>
+    <t>histTags_ignore_match</t>
+  </si>
+  <si>
+    <t>dubbele idmaps</t>
+  </si>
+  <si>
+    <t>hloc error</t>
+  </si>
+  <si>
+    <t>exPar error</t>
+  </si>
+  <si>
+    <t>intLoc missing</t>
+  </si>
+  <si>
+    <t>exPar missing</t>
+  </si>
+  <si>
+    <t>exLoc error</t>
+  </si>
+  <si>
+    <t>timeSeries error</t>
+  </si>
+  <si>
+    <t>validation error</t>
+  </si>
+  <si>
+    <t>par mismatch</t>
+  </si>
+  <si>
+    <t>locSet error</t>
+  </si>
+  <si>
+    <t>exLoc_ignore</t>
+  </si>
+  <si>
+    <t>TS800_ignore</t>
+  </si>
+  <si>
+    <t>xy_ignore</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">externalLocations die worden overgeslagen bij rapportage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exLoc error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Locations die worden overgeslagen bij rapportage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timeSeries error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAW-locaties waarbij controle op consistente xy locatie in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locSet error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wordt overgeslagen</t>
+    </r>
+  </si>
+  <si>
+    <t>Alle meetpunt ids uitgelezen uit de histTags.csv, die niet in de ignore staan en in de idmapping zijn opgenomen</t>
+  </si>
+  <si>
+    <t>Idmaps die niet in de juiste sectie zijn opgenomen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hisTags die niet konden worden gemapped naar interne locatie en niet in de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hisTag_ignore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zijn opgenomen</t>
+    </r>
+  </si>
+  <si>
+    <t>histTags die worden genegeerd bij het wegschrijven van de sheet mpt. Optioneel, csv-file kan in config.json worden gespecificeerd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hisTags uit de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>histTag_ignore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die wél in de idmaps zijn opgenomen</t>
+    </r>
+  </si>
+  <si>
+    <t>idmaps die dubbel in de dubbel gedefinieerd staan in de idmap-files</t>
+  </si>
+  <si>
+    <t>fouten in CAW sublocatie-groepen waardoor hier geen hoofdlocaties.csv uit kan worden geschreven</t>
+  </si>
+  <si>
+    <t>locaties waar foute externe parameters aan zijn gekoppeld</t>
+  </si>
+  <si>
+    <t>locaties waar externe parameters missen</t>
+  </si>
+  <si>
+    <t>interne locaties in de idmap die niet zijn opgenomen in locatiesets</t>
+  </si>
+  <si>
+    <t>externe locaties die niet passen bij interne locatie</t>
+  </si>
+  <si>
+    <t>tijdseries die niet logisch zijn gekoppeld aan interne locaties en parameters</t>
+  </si>
+  <si>
+    <t>controle of attributen van validatieregels overbodig zijn/ missen óf verkeerde waarden bevatten</t>
+  </si>
+  <si>
+    <t>controle of externe parameters en interne parameters logisch aan elkaar gekoppeld zijn</t>
+  </si>
+  <si>
+    <t>controle of alle locatiesets logisch zijn opgebouwd, de juiste attribuut-verwijzingen hebben én consistent zijn per CAW-locatie</t>
   </si>
 </sst>
 </file>
@@ -234,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -258,6 +437,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -265,59 +457,169 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,119 +937,271 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="120.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="6" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="7" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="C8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C12" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -759,6 +1213,7 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -780,59 +1235,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>24</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -856,16 +1311,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>24</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>800</v>
@@ -873,7 +1328,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>4800</v>
@@ -881,7 +1336,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>4801</v>
@@ -889,7 +1344,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>801</v>
@@ -907,7 +1362,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -917,19 +1372,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
+      <c r="A2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B2">
         <v>146257</v>
@@ -939,8 +1394,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>35</v>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B3">
         <v>152415</v>
@@ -950,8 +1405,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
+      <c r="A4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B4">
         <v>134709</v>
@@ -961,8 +1416,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
         <v>128204</v>
@@ -972,8 +1427,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
+      <c r="A6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B6">
         <v>128204</v>
@@ -983,8 +1438,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
+      <c r="A7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B7">
         <v>111178</v>
@@ -994,8 +1449,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
+      <c r="A8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B8">
         <v>115117</v>
@@ -1005,8 +1460,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>43</v>
+      <c r="A9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B9">
         <v>134911</v>

--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA49EE-0E52-4060-98B1-EC53021A710F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4390EF52-4BCA-4AE0-8394-D99658E88289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>histTag_ignore</t>
   </si>
@@ -51,12 +51,6 @@
     <t>betekenis</t>
   </si>
   <si>
-    <t>geen kleur</t>
-  </si>
-  <si>
-    <t>leeg werkblad</t>
-  </si>
-  <si>
     <t>blauw</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>rood</t>
   </si>
   <si>
-    <t>werkblad is uitvoer, rood is niet leeg en vraagt aandacht</t>
-  </si>
-  <si>
-    <t>werbladen</t>
-  </si>
-  <si>
     <t>invoer</t>
   </si>
   <si>
@@ -192,62 +180,7 @@
     <t>xy_ignore</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">externalLocations die worden overgeslagen bij rapportage </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exLoc error</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Locations die worden overgeslagen bij rapportage </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>timeSeries error</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CAW-locaties waarbij controle op consistente xy locatie in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>locSet error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wordt overgeslagen</t>
-    </r>
+    <t>Locations die worden overgeslagen bij rapportage timeSeries error</t>
   </si>
   <si>
     <t>Alle meetpunt ids uitgelezen uit de histTags.csv, die niet in de ignore staan en in de idmapping zijn opgenomen</t>
@@ -256,59 +189,13 @@
     <t>Idmaps die niet in de juiste sectie zijn opgenomen</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">hisTags die niet konden worden gemapped naar interne locatie en niet in de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hisTag_ignore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zijn opgenomen</t>
-    </r>
+    <t>hisTags die niet konden worden gemapped naar interne locatie en niet in de hisTag_ignore zijn opgenomen</t>
   </si>
   <si>
     <t>histTags die worden genegeerd bij het wegschrijven van de sheet mpt. Optioneel, csv-file kan in config.json worden gespecificeerd</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">hisTags uit de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>histTag_ignore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die wél in de idmaps zijn opgenomen</t>
-    </r>
+    <t>hisTags uit de histTag_ignore die wél in de idmaps zijn opgenomen</t>
   </si>
   <si>
     <t>idmaps die dubbel in de dubbel gedefinieerd staan in de idmap-files</t>
@@ -339,6 +226,18 @@
   </si>
   <si>
     <t>controle of alle locatiesets logisch zijn opgebouwd, de juiste attribuut-verwijzingen hebben én consistent zijn per CAW-locatie</t>
+  </si>
+  <si>
+    <t>externalLocations die worden overgeslagen bij rapportage exLoc error</t>
+  </si>
+  <si>
+    <t>werkblad is uitvoer, rood = aandacht!</t>
+  </si>
+  <si>
+    <t>CAW-locaties waarbij controle op consistente xy locatie in locSet error wordt overgeslagen</t>
+  </si>
+  <si>
+    <t>werkblad</t>
   </si>
 </sst>
 </file>
@@ -533,12 +432,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -548,15 +450,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -587,38 +480,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,280 +823,262 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="120.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="16" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="16" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="16" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="4">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1235,59 +1103,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1311,16 +1179,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>800</v>
@@ -1328,7 +1196,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>4800</v>
@@ -1336,7 +1204,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>4801</v>
@@ -1344,7 +1212,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>801</v>
@@ -1372,19 +1240,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
+      <c r="A1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
+      <c r="A2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>146257</v>
@@ -1394,8 +1262,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B3">
         <v>152415</v>
@@ -1405,8 +1273,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
+      <c r="A4" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B4">
         <v>134709</v>
@@ -1416,8 +1284,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
+      <c r="A5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B5">
         <v>128204</v>
@@ -1427,8 +1295,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
+      <c r="A6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B6">
         <v>128204</v>
@@ -1438,8 +1306,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>34</v>
+      <c r="A7" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B7">
         <v>111178</v>
@@ -1449,8 +1317,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
+      <c r="A8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B8">
         <v>115117</v>
@@ -1460,8 +1328,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
+      <c r="A9" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B9">
         <v>134911</v>

--- a/data/consistency.xlsx
+++ b/data/consistency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\hdsr_meetpuntconfig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4390EF52-4BCA-4AE0-8394-D99658E88289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9A96AD-1B96-470E-9F35-6CE4A44B141E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" tabRatio="928" xr2:uid="{40E01106-17DF-4FCD-9FF5-1EC46356306A}"/>
   </bookViews>
   <sheets>
     <sheet name="inhoudsopgave" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>histTag_ignore</t>
   </si>
@@ -39,9 +39,6 @@
     <t>soort</t>
   </si>
   <si>
-    <t>histTags_noMatch</t>
-  </si>
-  <si>
     <t>mpt</t>
   </si>
   <si>
@@ -135,15 +132,6 @@
     <t>KW21301.</t>
   </si>
   <si>
-    <t>idmap v sectie</t>
-  </si>
-  <si>
-    <t>histTags_ignore_match</t>
-  </si>
-  <si>
-    <t>dubbele idmaps</t>
-  </si>
-  <si>
     <t>hloc error</t>
   </si>
   <si>
@@ -238,13 +226,31 @@
   </si>
   <si>
     <t>werkblad</t>
+  </si>
+  <si>
+    <t>idmap section error</t>
+  </si>
+  <si>
+    <t>histTags noMatch</t>
+  </si>
+  <si>
+    <t>histTags ignore match</t>
+  </si>
+  <si>
+    <t>idmaps double</t>
+  </si>
+  <si>
+    <t>pars missing</t>
+  </si>
+  <si>
+    <t>controle of interne parameters missen in paramters.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +291,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -432,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,16 +489,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,17 +517,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,22 +836,24 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="120.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="120.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
@@ -846,232 +861,265 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>12</v>
+      <c r="B2" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1096,66 +1144,66 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1172,47 +1220,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>4800</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>4801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>801</v>
@@ -1234,25 +1282,25 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>146257</v>
@@ -1261,9 +1309,9 @@
         <v>444087</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>152415</v>
@@ -1272,9 +1320,9 @@
         <v>442693</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>134709</v>
@@ -1283,9 +1331,9 @@
         <v>455669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>128204</v>
@@ -1294,9 +1342,9 @@
         <v>456981</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>128204</v>
@@ -1305,9 +1353,9 @@
         <v>456981</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>111178</v>
@@ -1316,9 +1364,9 @@
         <v>455357</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>115117</v>
@@ -1327,9 +1375,9 @@
         <v>448663</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>134911</v>
